--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsbu\Desktop\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC139A1F-4490-4D70-9576-FC852FE7B594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE2CEF8-3E30-4672-A0B2-2DF206F56131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Сколько человек на судне</t>
   </si>
@@ -40,25 +40,25 @@
     <t>Михаил Михайлович;Арсений Арсеньеви;Илья Ильич</t>
   </si>
   <si>
-    <t>Вадим Вадимович;Иван Иванович</t>
-  </si>
-  <si>
     <t>ФИО уастников</t>
   </si>
   <si>
     <t>Лодка 5</t>
   </si>
   <si>
-    <t>gfhjk</t>
-  </si>
-  <si>
-    <t>e42</t>
-  </si>
-  <si>
-    <t>Вадиee4tм Вадимович;Иван Иванович</t>
-  </si>
-  <si>
-    <t>h</t>
+    <t>Название судна</t>
+  </si>
+  <si>
+    <t>a;b</t>
+  </si>
+  <si>
+    <t>c;f</t>
+  </si>
+  <si>
+    <t>sss;qqqq;ggg</t>
+  </si>
+  <si>
+    <t>Вадим Вадимович;Иван Иванович1</t>
   </si>
 </sst>
 </file>
@@ -323,7 +323,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -337,13 +337,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -364,13 +364,13 @@
     </row>
     <row r="3" spans="1:6" ht="12.7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -382,7 +382,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -395,7 +395,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -421,24 +421,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="12.7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>